--- a/APP INFORME.xlsx
+++ b/APP INFORME.xlsx
@@ -4511,7 +4511,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
